--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javie\Desktop\Carpetas\PythonLearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53AA5BE7-3A52-4A89-B0C8-0B5E1CCD488F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F70F4B3-EFF5-4CAC-AD9F-0088972F9935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5710" yWindow="1670" windowWidth="14400" windowHeight="7270" xr2:uid="{446C1269-F7D6-482C-B416-12CAD3FC95DB}"/>
+    <workbookView xWindow="1640" yWindow="2580" windowWidth="14400" windowHeight="7270" xr2:uid="{446C1269-F7D6-482C-B416-12CAD3FC95DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -117,7 +117,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -132,9 +132,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -506,7 +503,7 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -551,12 +548,13 @@
       <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
+        <f>(B6)</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="F2" s="7">
-        <f>EXP(3*D2 + (D2)^2)</f>
-        <v>1</v>
+      <c r="F2" s="8">
+        <f>(B6)</f>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -570,13 +568,13 @@
         <f>D2+$B$4</f>
         <v>0.05</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <f>(3*E2)+(2*D2)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F66" si="0">EXP(3*D3 + (D3)^2)</f>
-        <v>1.1647424620946143</v>
+        <f>EXP((3*D2) + (D2*D2))</f>
+        <v>1</v>
       </c>
       <c r="H3" s="1"/>
     </row>
@@ -589,16 +587,16 @@
         <v>0.05</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D67" si="1">D3+$B$4</f>
+        <f t="shared" ref="D4:D67" si="0">D3+$B$4</f>
         <v>0.1</v>
       </c>
-      <c r="E4" s="8">
-        <f>(3*E3)+(2*D3)</f>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E18" si="1">(3*E3)+(2*D3)</f>
         <v>2.1</v>
       </c>
       <c r="F4" s="7">
-        <f t="shared" si="0"/>
-        <v>1.3634251141321778</v>
+        <f>EXP((3*D3) + (D3*D3))</f>
+        <v>1.1647424620946143</v>
       </c>
       <c r="H4" s="1"/>
     </row>
@@ -610,17 +608,14 @@
         <v>0</v>
       </c>
       <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="E5" s="8">
-        <f t="shared" ref="E4:E67" si="2">(3*E4)+(2*D4)</f>
         <v>6.5000000000000009</v>
       </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>1.6039991828515145</v>
-      </c>
+      <c r="F5" s="7"/>
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -631,47 +626,38 @@
         <v>0.22222222222222221</v>
       </c>
       <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="7">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="2"/>
         <v>19.800000000000004</v>
       </c>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>1.8964808793049517</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="2"/>
         <v>59.800000000000011</v>
       </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>2.2535347872132085</v>
-      </c>
+      <c r="F7" s="7"/>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="7">
         <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="2"/>
         <v>179.90000000000003</v>
       </c>
-      <c r="F8" s="7">
-        <f t="shared" si="0"/>
-        <v>2.6912344723492621</v>
-      </c>
+      <c r="F8" s="7"/>
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -679,1322 +665,788 @@
         <v>11</v>
       </c>
       <c r="D9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="E9" s="7">
         <f t="shared" si="1"/>
-        <v>0.35</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="2"/>
         <v>540.30000000000007</v>
       </c>
-      <c r="F9" s="7">
-        <f t="shared" si="0"/>
-        <v>3.2300576972476689</v>
-      </c>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="E10" s="7">
         <f t="shared" si="1"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="2"/>
         <v>1621.6000000000001</v>
       </c>
-      <c r="F10" s="7">
-        <f t="shared" si="0"/>
-        <v>3.8961933017952139</v>
-      </c>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="E11" s="7">
         <f t="shared" si="1"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="2"/>
         <v>4865.6000000000004</v>
       </c>
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
-        <v>4.7232635936686638</v>
-      </c>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="E12" s="7">
         <f t="shared" si="1"/>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="2"/>
         <v>14597.7</v>
       </c>
-      <c r="F12" s="7">
-        <f t="shared" si="0"/>
-        <v>5.7546026760057289</v>
-      </c>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13" s="3">
+        <f t="shared" si="0"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="E13" s="7">
         <f t="shared" si="1"/>
-        <v>0.54999999999999993</v>
-      </c>
-      <c r="E13" s="8">
-        <f t="shared" si="2"/>
         <v>43794.100000000006</v>
       </c>
-      <c r="F13" s="7">
-        <f t="shared" si="0"/>
-        <v>7.0462812825047747</v>
-      </c>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D14" s="3">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="E14" s="7">
         <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="2"/>
         <v>131383.40000000002</v>
       </c>
-      <c r="F14" s="7">
-        <f t="shared" si="0"/>
-        <v>8.6711376584634525</v>
-      </c>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D15" s="3">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="E15" s="7">
         <f t="shared" si="1"/>
-        <v>0.65</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" si="2"/>
         <v>394151.40000000008</v>
       </c>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>10.724169222047431</v>
-      </c>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D16" s="3">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E16" s="7">
         <f t="shared" si="1"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="E16" s="8">
-        <f t="shared" si="2"/>
         <v>1182455.5000000002</v>
       </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>13.329771603195779</v>
-      </c>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D17" s="3">
+        <f t="shared" si="0"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="E17" s="7">
         <f t="shared" si="1"/>
-        <v>0.75000000000000011</v>
-      </c>
-      <c r="E17" s="8">
-        <f t="shared" si="2"/>
         <v>3547367.9000000008</v>
       </c>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>16.651494963610158</v>
-      </c>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D18" s="3">
+        <f t="shared" si="0"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="E18" s="7">
         <f t="shared" si="1"/>
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="E18" s="8">
-        <f t="shared" si="2"/>
         <v>10642105.200000003</v>
       </c>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>20.905243235092765</v>
-      </c>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D19" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.8500000000000002</v>
       </c>
-      <c r="E19" s="8">
-        <f t="shared" si="2"/>
-        <v>31926317.20000001</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="0"/>
-        <v>26.377199983121486</v>
-      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D20" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.90000000000000024</v>
       </c>
-      <c r="E20" s="8">
-        <f t="shared" si="2"/>
-        <v>95778953.300000027</v>
-      </c>
-      <c r="F20" s="7">
-        <f t="shared" si="0"/>
-        <v>33.448267783944949</v>
-      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D21" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.95000000000000029</v>
       </c>
-      <c r="E21" s="8">
-        <f t="shared" si="2"/>
-        <v>287336861.70000011</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>42.627517694245469</v>
-      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D22" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000002</v>
       </c>
-      <c r="E22" s="8">
-        <f t="shared" si="2"/>
-        <v>862010587.00000036</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>54.598150033144336</v>
-      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D23" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0500000000000003</v>
       </c>
-      <c r="E23" s="8">
-        <f t="shared" si="2"/>
-        <v>2586031763.000001</v>
-      </c>
-      <c r="F23" s="7">
-        <f t="shared" si="0"/>
-        <v>70.280895139648592</v>
-      </c>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D24" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1000000000000003</v>
       </c>
-      <c r="E24" s="8">
-        <f t="shared" si="2"/>
-        <v>7758095291.1000032</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" si="0"/>
-        <v>90.92181851052969</v>
-      </c>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D25" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.1500000000000004</v>
       </c>
-      <c r="E25" s="8">
-        <f t="shared" si="2"/>
-        <v>23274285875.500011</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="0"/>
-        <v>118.21440887047706</v>
-      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D26" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2000000000000004</v>
       </c>
-      <c r="E26" s="8">
-        <f t="shared" si="2"/>
-        <v>69822857628.800034</v>
-      </c>
-      <c r="F26" s="7">
-        <f t="shared" si="0"/>
-        <v>154.47001502589126</v>
-      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D27" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.2500000000000004</v>
       </c>
-      <c r="E27" s="8">
-        <f t="shared" si="2"/>
-        <v>209468572888.80008</v>
-      </c>
-      <c r="F27" s="7">
-        <f t="shared" si="0"/>
-        <v>202.85673683086543</v>
-      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D28" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3000000000000005</v>
       </c>
-      <c r="E28" s="8">
-        <f t="shared" si="2"/>
-        <v>628405718668.90027</v>
-      </c>
-      <c r="F28" s="7">
-        <f t="shared" si="0"/>
-        <v>267.73561971364785</v>
-      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D29" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.3500000000000005</v>
       </c>
-      <c r="E29" s="8">
-        <f t="shared" si="2"/>
-        <v>1885217156009.3008</v>
-      </c>
-      <c r="F29" s="7">
-        <f t="shared" si="0"/>
-        <v>355.13571066959952</v>
-      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D30" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4000000000000006</v>
       </c>
-      <c r="E30" s="8">
-        <f t="shared" si="2"/>
-        <v>5655651468030.6025</v>
-      </c>
-      <c r="F30" s="7">
-        <f t="shared" si="0"/>
-        <v>473.42807483483648</v>
-      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D31" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.4500000000000006</v>
       </c>
-      <c r="E31" s="8">
-        <f t="shared" si="2"/>
-        <v>16966954404094.609</v>
-      </c>
-      <c r="F31" s="7">
-        <f t="shared" si="0"/>
-        <v>634.28602738764368</v>
-      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D32" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5000000000000007</v>
       </c>
-      <c r="E32" s="8">
-        <f t="shared" si="2"/>
-        <v>50900863212286.727</v>
-      </c>
-      <c r="F32" s="7">
-        <f t="shared" si="0"/>
-        <v>854.05876252615462</v>
-      </c>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.5500000000000007</v>
       </c>
-      <c r="E33" s="8">
-        <f t="shared" si="2"/>
-        <v>152702589636863.19</v>
-      </c>
-      <c r="F33" s="7">
-        <f t="shared" si="0"/>
-        <v>1155.7444953280353</v>
-      </c>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6000000000000008</v>
       </c>
-      <c r="E34" s="8">
-        <f t="shared" si="2"/>
-        <v>458107768910592.69</v>
-      </c>
-      <c r="F34" s="7">
-        <f t="shared" si="0"/>
-        <v>1571.836562957727</v>
-      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.6500000000000008</v>
       </c>
-      <c r="E35" s="8">
-        <f t="shared" si="2"/>
-        <v>1374323306731781.3</v>
-      </c>
-      <c r="F35" s="7">
-        <f t="shared" si="0"/>
-        <v>2148.4458515748379</v>
-      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7000000000000008</v>
       </c>
-      <c r="E36" s="8">
-        <f t="shared" si="2"/>
-        <v>4122969920195347.5</v>
-      </c>
-      <c r="F36" s="7">
-        <f t="shared" si="0"/>
-        <v>2951.2969594839342</v>
-      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.7500000000000009</v>
       </c>
-      <c r="E37" s="8">
-        <f t="shared" si="2"/>
-        <v>1.2368909760586046E+16</v>
-      </c>
-      <c r="F37" s="7">
-        <f t="shared" si="0"/>
-        <v>4074.486477733722</v>
-      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D38" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.8000000000000009</v>
       </c>
-      <c r="E38" s="8">
-        <f t="shared" si="2"/>
-        <v>3.7106729281758136E+16</v>
-      </c>
-      <c r="F38" s="7">
-        <f t="shared" si="0"/>
-        <v>5653.3298244360476</v>
-      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.850000000000001</v>
       </c>
-      <c r="E39" s="8">
-        <f t="shared" si="2"/>
-        <v>1.113201878452744E+17</v>
-      </c>
-      <c r="F39" s="7">
-        <f t="shared" si="0"/>
-        <v>7883.2852037439397</v>
-      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.900000000000001</v>
       </c>
-      <c r="E40" s="8">
-        <f t="shared" si="2"/>
-        <v>3.3396056353582323E+17</v>
-      </c>
-      <c r="F40" s="7">
-        <f t="shared" si="0"/>
-        <v>11047.948128777149</v>
-      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.9500000000000011</v>
       </c>
-      <c r="E41" s="8">
-        <f t="shared" si="2"/>
-        <v>1.0018816906074697E+18</v>
-      </c>
-      <c r="F41" s="7">
-        <f t="shared" si="0"/>
-        <v>15560.641120491953</v>
-      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0000000000000009</v>
       </c>
-      <c r="E42" s="8">
-        <f t="shared" si="2"/>
-        <v>3.0056450718224092E+18</v>
-      </c>
-      <c r="F42" s="7">
-        <f t="shared" si="0"/>
-        <v>22026.465794806874</v>
-      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.0500000000000007</v>
       </c>
-      <c r="E43" s="8">
-        <f t="shared" si="2"/>
-        <v>9.0169352154672271E+18</v>
-      </c>
-      <c r="F43" s="7">
-        <f t="shared" si="0"/>
-        <v>31335.28318636708</v>
-      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1000000000000005</v>
       </c>
-      <c r="E44" s="8">
-        <f t="shared" si="2"/>
-        <v>2.7050805646401683E+19</v>
-      </c>
-      <c r="F44" s="7">
-        <f t="shared" si="0"/>
-        <v>44801.638885518711</v>
-      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.1500000000000004</v>
       </c>
-      <c r="E45" s="8">
-        <f t="shared" si="2"/>
-        <v>8.115241693920505E+19</v>
-      </c>
-      <c r="F45" s="7">
-        <f t="shared" si="0"/>
-        <v>64376.246443003249</v>
-      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="E46" s="8">
-        <f t="shared" si="2"/>
-        <v>2.4345725081761513E+20</v>
-      </c>
-      <c r="F46" s="7">
-        <f t="shared" si="0"/>
-        <v>92967.012043358482</v>
-      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.25</v>
       </c>
-      <c r="E47" s="8">
-        <f t="shared" si="2"/>
-        <v>7.3037175245284547E+20</v>
-      </c>
-      <c r="F47" s="7">
-        <f t="shared" si="0"/>
-        <v>134928.46120973182</v>
-      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="E48" s="8">
-        <f t="shared" si="2"/>
-        <v>2.1911152573585364E+21</v>
-      </c>
-      <c r="F48" s="7">
-        <f t="shared" si="0"/>
-        <v>196811.16604021992</v>
-      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3499999999999996</v>
       </c>
-      <c r="E49" s="8">
-        <f t="shared" si="2"/>
-        <v>6.573345772075609E+21</v>
-      </c>
-      <c r="F49" s="7">
-        <f t="shared" si="0"/>
-        <v>288514.32007299637</v>
-      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
     </row>
     <row r="50" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.3999999999999995</v>
       </c>
-      <c r="E50" s="8">
-        <f t="shared" si="2"/>
-        <v>1.9720037316226827E+22</v>
-      </c>
-      <c r="F50" s="7">
-        <f t="shared" si="0"/>
-        <v>425066.11478172574</v>
-      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
     </row>
     <row r="51" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4499999999999993</v>
       </c>
-      <c r="E51" s="8">
-        <f t="shared" si="2"/>
-        <v>5.9160111948680481E+22</v>
-      </c>
-      <c r="F51" s="7">
-        <f t="shared" si="0"/>
-        <v>629385.98743831099</v>
-      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
     </row>
     <row r="52" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D52" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.4999999999999991</v>
       </c>
-      <c r="E52" s="8">
-        <f t="shared" si="2"/>
-        <v>1.7748033584604145E+23</v>
-      </c>
-      <c r="F52" s="7">
-        <f t="shared" si="0"/>
-        <v>936589.15823254781</v>
-      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
     </row>
     <row r="53" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D53" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5499999999999989</v>
       </c>
-      <c r="E53" s="8">
-        <f t="shared" si="2"/>
-        <v>5.3244100753812435E+23</v>
-      </c>
-      <c r="F53" s="7">
-        <f t="shared" si="0"/>
-        <v>1400724.2748636007</v>
-      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
     </row>
     <row r="54" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D54" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5999999999999988</v>
       </c>
-      <c r="E54" s="8">
-        <f t="shared" si="2"/>
-        <v>1.5973230226143729E+24</v>
-      </c>
-      <c r="F54" s="7">
-        <f t="shared" si="0"/>
-        <v>2105366.2490255311</v>
-      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
     </row>
     <row r="55" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D55" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6499999999999986</v>
       </c>
-      <c r="E55" s="8">
-        <f t="shared" si="2"/>
-        <v>4.7919690678431188E+24</v>
-      </c>
-      <c r="F55" s="7">
-        <f t="shared" si="0"/>
-        <v>3180344.2385054976</v>
-      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
     </row>
     <row r="56" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D56" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.6999999999999984</v>
       </c>
-      <c r="E56" s="8">
-        <f t="shared" si="2"/>
-        <v>1.4375907203529356E+25</v>
-      </c>
-      <c r="F56" s="7">
-        <f t="shared" si="0"/>
-        <v>4828275.8740099426</v>
-      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
     </row>
     <row r="57" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D57" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.7499999999999982</v>
       </c>
-      <c r="E57" s="8">
-        <f t="shared" si="2"/>
-        <v>4.3127721610588073E+25</v>
-      </c>
-      <c r="F57" s="7">
-        <f t="shared" si="0"/>
-        <v>7366844.3688701149</v>
-      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
     </row>
     <row r="58" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D58" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.799999999999998</v>
       </c>
-      <c r="E58" s="8">
-        <f t="shared" si="2"/>
-        <v>1.2938316483176422E+26</v>
-      </c>
-      <c r="F58" s="7">
-        <f t="shared" si="0"/>
-        <v>11296460.44885755</v>
-      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
     </row>
     <row r="59" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D59" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8499999999999979</v>
       </c>
-      <c r="E59" s="8">
-        <f t="shared" si="2"/>
-        <v>3.8814949449529268E+26</v>
-      </c>
-      <c r="F59" s="7">
-        <f t="shared" si="0"/>
-        <v>17409037.049161658</v>
-      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
     </row>
     <row r="60" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D60" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.8999999999999977</v>
       </c>
-      <c r="E60" s="8">
-        <f t="shared" si="2"/>
-        <v>1.1644484834858781E+27</v>
-      </c>
-      <c r="F60" s="7">
-        <f t="shared" si="0"/>
-        <v>26963644.051785644</v>
-      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
     </row>
     <row r="61" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D61" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9499999999999975</v>
       </c>
-      <c r="E61" s="8">
-        <f t="shared" si="2"/>
-        <v>3.4933454504576346E+27</v>
-      </c>
-      <c r="F61" s="7">
-        <f t="shared" si="0"/>
-        <v>41971442.310829982</v>
-      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D62" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9999999999999973</v>
       </c>
-      <c r="E62" s="8">
-        <f t="shared" si="2"/>
-        <v>1.0480036351372904E+28</v>
-      </c>
-      <c r="F62" s="7">
-        <f t="shared" si="0"/>
-        <v>65659969.137329109</v>
-      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
     </row>
     <row r="63" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D63" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.0499999999999972</v>
       </c>
-      <c r="E63" s="8">
-        <f t="shared" si="2"/>
-        <v>3.1440109054118713E+28</v>
-      </c>
-      <c r="F63" s="7">
-        <f t="shared" si="0"/>
-        <v>103233090.08746134</v>
-      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D64" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.099999999999997</v>
       </c>
-      <c r="E64" s="8">
-        <f t="shared" si="2"/>
-        <v>9.4320327162356148E+28</v>
-      </c>
-      <c r="F64" s="7">
-        <f t="shared" si="0"/>
-        <v>163120540.86921719</v>
-      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
     </row>
     <row r="65" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D65" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.1499999999999968</v>
       </c>
-      <c r="E65" s="8">
-        <f t="shared" si="2"/>
-        <v>2.8296098148706845E+29</v>
-      </c>
-      <c r="F65" s="7">
-        <f t="shared" si="0"/>
-        <v>259041800.87989435</v>
-      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D66" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.1999999999999966</v>
       </c>
-      <c r="E66" s="8">
-        <f t="shared" si="2"/>
-        <v>8.488829444612053E+29</v>
-      </c>
-      <c r="F66" s="7">
-        <f t="shared" si="0"/>
-        <v>413430507.89101774</v>
-      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
     </row>
     <row r="67" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D67" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.2499999999999964</v>
       </c>
-      <c r="E67" s="8">
-        <f t="shared" si="2"/>
-        <v>2.5466488333836159E+30</v>
-      </c>
-      <c r="F67" s="7">
-        <f t="shared" ref="F67:F102" si="3">EXP(3*D67 + (D67)^2)</f>
-        <v>663142196.82307673</v>
-      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D68" s="3">
-        <f t="shared" ref="D68:D102" si="4">D67+$B$4</f>
+        <f t="shared" ref="D68:D101" si="2">D67+$B$4</f>
         <v>3.2999999999999963</v>
       </c>
-      <c r="E68" s="8">
-        <f t="shared" ref="E68:E102" si="5">(3*E67)+(2*D67)</f>
-        <v>7.6399465001508471E+30</v>
-      </c>
-      <c r="F68" s="7">
-        <f t="shared" si="3"/>
-        <v>1069011257.7096561</v>
-      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
     </row>
     <row r="69" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D69" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.3499999999999961</v>
       </c>
-      <c r="E69" s="8">
-        <f t="shared" si="5"/>
-        <v>2.2919839500452544E+31</v>
-      </c>
-      <c r="F69" s="7">
-        <f t="shared" si="3"/>
-        <v>1731926136.820884</v>
-      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D70" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.3999999999999959</v>
       </c>
-      <c r="E70" s="8">
-        <f t="shared" si="5"/>
-        <v>6.8759518501357631E+31</v>
-      </c>
-      <c r="F70" s="7">
-        <f t="shared" si="3"/>
-        <v>2819992324.2623982</v>
-      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
     </row>
     <row r="71" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D71" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.4499999999999957</v>
       </c>
-      <c r="E71" s="8">
-        <f t="shared" si="5"/>
-        <v>2.0627855550407289E+32</v>
-      </c>
-      <c r="F71" s="7">
-        <f t="shared" si="3"/>
-        <v>4614641405.8130913</v>
-      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D72" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.4999999999999956</v>
       </c>
-      <c r="E72" s="8">
-        <f t="shared" si="5"/>
-        <v>6.1883566651221872E+32</v>
-      </c>
-      <c r="F72" s="7">
-        <f t="shared" si="3"/>
-        <v>7589260554.8152199</v>
-      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
     </row>
     <row r="73" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D73" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.5499999999999954</v>
       </c>
-      <c r="E73" s="8">
-        <f t="shared" si="5"/>
-        <v>1.8565069995366563E+33</v>
-      </c>
-      <c r="F73" s="7">
-        <f t="shared" si="3"/>
-        <v>12543895878.276384</v>
-      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D74" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.5999999999999952</v>
       </c>
-      <c r="E74" s="8">
-        <f t="shared" si="5"/>
-        <v>5.5695209986099695E+33</v>
-      </c>
-      <c r="F74" s="7">
-        <f t="shared" si="3"/>
-        <v>20837081482.528473</v>
-      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
     </row>
     <row r="75" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D75" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.649999999999995</v>
       </c>
-      <c r="E75" s="8">
-        <f t="shared" si="5"/>
-        <v>1.6708562995829908E+34</v>
-      </c>
-      <c r="F75" s="7">
-        <f t="shared" si="3"/>
-        <v>34786666369.349274</v>
-      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
     </row>
     <row r="76" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D76" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.6999999999999948</v>
       </c>
-      <c r="E76" s="8">
-        <f t="shared" si="5"/>
-        <v>5.012568898748972E+34</v>
-      </c>
-      <c r="F76" s="7">
-        <f t="shared" si="3"/>
-        <v>58366037035.550995</v>
-      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
     </row>
     <row r="77" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D77" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.7499999999999947</v>
       </c>
-      <c r="E77" s="8">
-        <f t="shared" si="5"/>
-        <v>1.5037706696246916E+35</v>
-      </c>
-      <c r="F77" s="7">
-        <f t="shared" si="3"/>
-        <v>98419028364.733368</v>
-      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
     </row>
     <row r="78" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D78" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.7999999999999945</v>
       </c>
-      <c r="E78" s="8">
-        <f t="shared" si="5"/>
-        <v>4.5113120088740752E+35</v>
-      </c>
-      <c r="F78" s="7">
-        <f t="shared" si="3"/>
-        <v>166789770991.55783</v>
-      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
     </row>
     <row r="79" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D79" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.8499999999999943</v>
       </c>
-      <c r="E79" s="8">
-        <f t="shared" si="5"/>
-        <v>1.3533936026622227E+36</v>
-      </c>
-      <c r="F79" s="7">
-        <f t="shared" si="3"/>
-        <v>284073828263.90533</v>
-      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
     </row>
     <row r="80" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D80" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.8999999999999941</v>
       </c>
-      <c r="E80" s="8">
-        <f t="shared" si="5"/>
-        <v>4.0601808079866681E+36</v>
-      </c>
-      <c r="F80" s="7">
-        <f t="shared" si="3"/>
-        <v>486255479154.6424</v>
-      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
     </row>
     <row r="81" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D81" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.949999999999994</v>
       </c>
-      <c r="E81" s="8">
-        <f t="shared" si="5"/>
-        <v>1.2180542423960004E+37</v>
-      </c>
-      <c r="F81" s="7">
-        <f t="shared" si="3"/>
-        <v>836506393081.62</v>
-      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
     </row>
     <row r="82" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D82" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.9999999999999938</v>
       </c>
-      <c r="E82" s="8">
-        <f t="shared" si="5"/>
-        <v>3.6541627271880016E+37</v>
-      </c>
-      <c r="F82" s="7">
-        <f t="shared" si="3"/>
-        <v>1446257064291.3774</v>
-      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
     </row>
     <row r="83" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D83" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.0499999999999936</v>
       </c>
-      <c r="E83" s="8">
-        <f t="shared" si="5"/>
-        <v>1.0962488181564006E+38</v>
-      </c>
-      <c r="F83" s="7">
-        <f t="shared" si="3"/>
-        <v>2513004084909.7593</v>
-      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
     </row>
     <row r="84" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D84" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.0999999999999934</v>
       </c>
-      <c r="E84" s="8">
-        <f t="shared" si="5"/>
-        <v>3.2887464544692017E+38</v>
-      </c>
-      <c r="F84" s="7">
-        <f t="shared" si="3"/>
-        <v>4388462263544.4043</v>
-      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
     </row>
     <row r="85" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D85" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.1499999999999932</v>
       </c>
-      <c r="E85" s="8">
-        <f t="shared" si="5"/>
-        <v>9.8662393634076047E+38</v>
-      </c>
-      <c r="F85" s="7">
-        <f t="shared" si="3"/>
-        <v>7701991132528.1123</v>
-      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
     </row>
     <row r="86" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D86" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.1999999999999931</v>
       </c>
-      <c r="E86" s="8">
-        <f t="shared" si="5"/>
-        <v>2.9598718090222816E+39</v>
-      </c>
-      <c r="F86" s="7">
-        <f t="shared" si="3"/>
-        <v>13585171731693.178</v>
-      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
     </row>
     <row r="87" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D87" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.2499999999999929</v>
       </c>
-      <c r="E87" s="8">
-        <f t="shared" si="5"/>
-        <v>8.8796154270668447E+39</v>
-      </c>
-      <c r="F87" s="7">
-        <f t="shared" si="3"/>
-        <v>24082342222133.121</v>
-      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
     </row>
     <row r="88" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D88" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.2999999999999927</v>
       </c>
-      <c r="E88" s="8">
-        <f t="shared" si="5"/>
-        <v>2.6638846281200533E+40</v>
-      </c>
-      <c r="F88" s="7">
-        <f t="shared" si="3"/>
-        <v>42904593039951.047</v>
-      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
     </row>
     <row r="89" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D89" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.3499999999999925</v>
       </c>
-      <c r="E89" s="8">
-        <f t="shared" si="5"/>
-        <v>7.9916538843601598E+40</v>
-      </c>
-      <c r="F89" s="7">
-        <f t="shared" si="3"/>
-        <v>76821064821199.703</v>
-      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
     </row>
     <row r="90" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D90" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.3999999999999924</v>
       </c>
-      <c r="E90" s="8">
-        <f t="shared" si="5"/>
-        <v>2.397496165308048E+41</v>
-      </c>
-      <c r="F90" s="7">
-        <f t="shared" si="3"/>
-        <v>138238282933782.63</v>
-      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
     </row>
     <row r="91" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D91" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.4499999999999922</v>
       </c>
-      <c r="E91" s="8">
-        <f t="shared" si="5"/>
-        <v>7.1924884959241445E+41</v>
-      </c>
-      <c r="F91" s="7">
-        <f t="shared" si="3"/>
-        <v>250004491592625.66</v>
-      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
     </row>
     <row r="92" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D92" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.499999999999992</v>
       </c>
-      <c r="E92" s="8">
-        <f t="shared" si="5"/>
-        <v>2.1577465487772432E+42</v>
-      </c>
-      <c r="F92" s="7">
-        <f t="shared" si="3"/>
-        <v>454400461972543.06</v>
-      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
     </row>
     <row r="93" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D93" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.5499999999999918</v>
       </c>
-      <c r="E93" s="8">
-        <f t="shared" si="5"/>
-        <v>6.4732396463317302E+42</v>
-      </c>
-      <c r="F93" s="7">
-        <f t="shared" si="3"/>
-        <v>830044143296819.75</v>
-      </c>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7"/>
     </row>
     <row r="94" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D94" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.5999999999999917</v>
       </c>
-      <c r="E94" s="8">
-        <f t="shared" si="5"/>
-        <v>1.9419718938995191E+43</v>
-      </c>
-      <c r="F94" s="7">
-        <f t="shared" si="3"/>
-        <v>1523824975336100</v>
-      </c>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7"/>
     </row>
     <row r="95" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D95" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.6499999999999915</v>
       </c>
-      <c r="E95" s="8">
-        <f t="shared" si="5"/>
-        <v>5.825915681698557E+43</v>
-      </c>
-      <c r="F95" s="7">
-        <f t="shared" si="3"/>
-        <v>2811515340539194</v>
-      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
     </row>
     <row r="96" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D96" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.6999999999999913</v>
       </c>
-      <c r="E96" s="8">
-        <f t="shared" si="5"/>
-        <v>1.747774704509567E+44</v>
-      </c>
-      <c r="F96" s="7">
-        <f t="shared" si="3"/>
-        <v>5213355013755732</v>
-      </c>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
     </row>
     <row r="97" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D97" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.7499999999999911</v>
       </c>
-      <c r="E97" s="8">
-        <f t="shared" si="5"/>
-        <v>5.2433241135287006E+44</v>
-      </c>
-      <c r="F97" s="7">
-        <f t="shared" si="3"/>
-        <v>9715510267154008</v>
-      </c>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
     </row>
     <row r="98" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D98" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.7999999999999909</v>
       </c>
-      <c r="E98" s="8">
-        <f t="shared" si="5"/>
-        <v>1.5729972340586102E+45</v>
-      </c>
-      <c r="F98" s="7">
-        <f t="shared" si="3"/>
-        <v>1.8196396957010572E+16</v>
-      </c>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
     </row>
     <row r="99" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D99" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.8499999999999908</v>
       </c>
-      <c r="E99" s="8">
-        <f t="shared" si="5"/>
-        <v>4.7189917021758305E+45</v>
-      </c>
-      <c r="F99" s="7">
-        <f t="shared" si="3"/>
-        <v>3.425126865654366E+16</v>
-      </c>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
     </row>
     <row r="100" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D100" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.8999999999999906</v>
       </c>
-      <c r="E100" s="8">
-        <f t="shared" si="5"/>
-        <v>1.4156975106527493E+46</v>
-      </c>
-      <c r="F100" s="7">
-        <f t="shared" si="3"/>
-        <v>6.4794686730009032E+16</v>
-      </c>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
     </row>
     <row r="101" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D101" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.9499999999999904</v>
       </c>
-      <c r="E101" s="8">
-        <f t="shared" si="5"/>
-        <v>4.2470925319582478E+46</v>
-      </c>
-      <c r="F101" s="7">
-        <f t="shared" si="3"/>
-        <v>1.2318947350127018E+17</v>
-      </c>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
     </row>
     <row r="102" spans="4:6" x14ac:dyDescent="0.35">
       <c r="D102" s="3">
-        <f t="shared" si="4"/>
+        <f>D101+$B$4</f>
         <v>4.9999999999999902</v>
       </c>
-      <c r="E102" s="8">
-        <f t="shared" si="5"/>
-        <v>1.2741277595874744E+47</v>
-      </c>
-      <c r="F102" s="7">
-        <f t="shared" si="3"/>
-        <v>2.3538526683698989E+17</v>
-      </c>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
